--- a/biology/Botanique/Callisia/Callisia.xlsx
+++ b/biology/Botanique/Callisia/Callisia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callisia est un genre de plantes appartenant à la famille des Commelinaceae qui comporte des plantes au port retombant.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (17 juillet 2013)[2] et World Checklist of Selected Plant Families (WCSP)  (17 juillet 2013)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (17 juillet 2013) et World Checklist of Selected Plant Families (WCSP)  (17 juillet 2013) :
 Callisia ciliata Kunth (1817)
 Callisia cordifolia (Sw.) Andiers. &amp; Woodson (1935)
 Callisia filiformis (M.Martens &amp; Galeotti) D.R.Hunt (1986)
@@ -534,7 +548,7 @@
 Callisia soconuscensis Matuda (1954)
 Callisia tehuantepecana Matuda (1957)
 Callisia warszewicziana (Kunth &amp; C.D.Bouché) D.R.Hunt (1983)
-Selon NCBI  (17 juillet 2013)[4] :
+Selon NCBI  (17 juillet 2013) :
 Callisia cordifolia
 Callisia fragrans
 Callisia graminea
@@ -542,7 +556,7 @@
 Callisia navicularis
 Callisia repens
 Callisia warszewicziana
-Selon Tropicos                                           (17 juillet 2013)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (17 juillet 2013) (Attention liste brute contenant possiblement des synonymes) :
 Callisia ciliata Kunth
 Callisia cordifolia (Sw.) E.S. Anderson &amp; Woodson
 Callisia delicatula Kunth
@@ -607,7 +621,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Callisia elegans
